--- a/BackTest/2020-01-16 BackTest FNB.xlsx
+++ b/BackTest/2020-01-16 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-27052235.47539999</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-29973259.9408</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-29897339.0101</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30250885.5172</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-28271564.5363</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-28916742.95169999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-27418500.44349999</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-26690053.22819999</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-25841812.10119999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-26002307.77819999</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-25196961.81539999</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-25193826.50259999</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28512094.92689999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-28512094.92689999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-28391459.98039999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-28322890.48149999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-30323892.81769999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-31788268.98779999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-33171517.73929999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-33191137.61779999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-33191137.61779999</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-33284236.72949999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-33234236.72949999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-33188683.23199999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-34973438.93549999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-34972929.29479999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-37677702.03809999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-35224140.53722512</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-34916234.90342512</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-36656155.34732512</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-36802618.28092512</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-36749906.81762512</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-36749906.81762512</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-35092113.92042512</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-34609272.60642511</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-34609272.60642511</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-34609272.60642511</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-35128987.36832511</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-35086717.18472511</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-35086717.18472511</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-35118340.45982511</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-32905641.55522511</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-32870015.89812511</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-32391571.57772511</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-27690204.83082511</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-27581429.50322511</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-27603760.50322511</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-25295436.19252511</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-24581271.39432511</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-25674981.70602511</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-26197650.36822511</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-26221415.04552511</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-26260748.04552511</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-26260748.04552511</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-26260526.04552511</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-26262692.04552511</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-26488324.16642511</v>
       </c>
       <c r="H246" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-26488324.16642511</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-26402248.82972511</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-26440012.4524251</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-26440012.4524251</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-26386688.7079251</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-26399167.5718251</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-26541424.2535251</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-26551637.2786251</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-26554137.2786251</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-26441935.9150251</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-26443267.9150251</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-26455420.5401251</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-26455420.5401251</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-26759532.9135251</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-26334609.2607251</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-26334609.2607251</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-26334309.2607251</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-26335041.2607251</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-26337341.2607251</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-26337341.2607251</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-26749640.6083251</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-28337665.4391251</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-30662835.4071251</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-30662835.4071251</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-30442340.7383251</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-40414596.84606791</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -14773,14 +14773,10 @@
         <v>-79613364.8101811</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="J436" t="n">
-        <v>2.099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
@@ -14813,14 +14809,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14852,14 +14842,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14891,14 +14875,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14930,14 +14908,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14969,14 +14941,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15008,14 +14974,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15047,14 +15007,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15083,19 +15037,11 @@
         <v>-80053490.06968109</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="J444" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15127,14 +15073,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15166,14 +15106,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15205,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15241,19 +15169,11 @@
         <v>-79167657.8826811</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>2.084</v>
-      </c>
-      <c r="J448" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15282,19 +15202,11 @@
         <v>-79251360.8826811</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J449" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15323,19 +15235,11 @@
         <v>-78847301.40588111</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="J450" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15367,14 +15271,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15406,14 +15304,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15445,14 +15337,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15484,14 +15370,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15523,14 +15403,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15562,14 +15436,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15601,14 +15469,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15640,14 +15502,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15679,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15718,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15757,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15796,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15835,14 +15667,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15874,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15913,14 +15733,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15952,14 +15766,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15991,14 +15799,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16030,14 +15832,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16069,14 +15865,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16108,14 +15898,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16147,14 +15931,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16186,14 +15964,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16225,14 +15997,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16264,14 +16030,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16303,14 +16063,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16342,14 +16096,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16381,14 +16129,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16420,14 +16162,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16459,14 +16195,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16498,14 +16228,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16537,14 +16261,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16576,14 +16294,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16615,14 +16327,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16654,14 +16360,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16693,14 +16393,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16732,14 +16426,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16771,14 +16459,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16810,14 +16492,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16849,14 +16525,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16888,14 +16558,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16927,14 +16591,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16966,14 +16624,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17005,14 +16657,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17044,14 +16690,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17083,14 +16723,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17122,14 +16756,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17161,14 +16789,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17197,19 +16819,11 @@
         <v>-77457045.6148545</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>2.118</v>
-      </c>
-      <c r="J498" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17241,14 +16855,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17277,19 +16885,11 @@
         <v>-82744119.6994545</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>2.108</v>
-      </c>
-      <c r="J500" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17318,19 +16918,11 @@
         <v>-82744119.6994545</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>2.101</v>
-      </c>
-      <c r="J501" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17362,14 +16954,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17401,14 +16987,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17440,14 +17020,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17479,14 +17053,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17518,14 +17086,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17557,14 +17119,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17596,14 +17152,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17635,14 +17185,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17674,14 +17218,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17713,14 +17251,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17752,14 +17284,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17791,14 +17317,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17830,14 +17350,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17869,14 +17383,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17908,14 +17416,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17947,14 +17449,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17986,14 +17482,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18025,14 +17515,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18064,14 +17548,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18103,14 +17581,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18142,14 +17614,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18181,14 +17647,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18220,14 +17680,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18259,14 +17713,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18298,14 +17746,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18337,14 +17779,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18376,14 +17812,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18415,14 +17845,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18454,14 +17878,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18493,14 +17911,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18532,14 +17944,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18571,14 +17977,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18610,14 +18010,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18649,14 +18043,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18688,14 +18076,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18727,14 +18109,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18766,14 +18142,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18805,14 +18175,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18844,14 +18208,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18883,14 +18241,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18922,14 +18274,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18961,14 +18307,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19000,14 +18340,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19039,14 +18373,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19078,14 +18406,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19117,14 +18439,8 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19156,14 +18472,8 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19195,14 +18505,8 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19234,14 +18538,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19273,14 +18571,8 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19312,14 +18604,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19348,23 +18634,15 @@
         <v>-80254804.7488333</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>2.099</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
-        <v>1.062651262505955</v>
-      </c>
-      <c r="M553" t="n">
-        <v>1.173913043478261</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -19389,7 +18667,7 @@
         <v>-80707003.92193329</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19422,7 +18700,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19455,7 +18733,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19488,7 +18766,7 @@
         <v>-81497789.84603329</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20214,14 +19492,10 @@
         <v>-81647367.07912087</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
-      </c>
-      <c r="I579" t="n">
-        <v>2.166</v>
-      </c>
-      <c r="J579" t="n">
-        <v>2.166</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
@@ -20254,14 +19528,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>2.166</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20293,14 +19561,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>2.166</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -21484,11 +20746,17 @@
         <v>-93885961.48349035</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>2.05</v>
+      </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21517,7 +20785,7 @@
         <v>-93787000.78869034</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I618" t="n">
         <v>2.04</v>
@@ -21525,7 +20793,7 @@
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L618" t="n">
@@ -21556,7 +20824,7 @@
         <v>-92581774.57619523</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I619" t="n">
         <v>2.043</v>
@@ -21595,7 +20863,7 @@
         <v>-92581774.57619523</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I620" t="n">
         <v>2.052</v>
@@ -21634,7 +20902,7 @@
         <v>-92120326.44939522</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I621" t="n">
         <v>2.052</v>
@@ -21673,7 +20941,7 @@
         <v>-92120326.44939522</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I622" t="n">
         <v>2.06</v>
@@ -21712,7 +20980,7 @@
         <v>-95084768.39649522</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>2.06</v>
@@ -21751,7 +21019,7 @@
         <v>-96098767.39649522</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>2.043</v>
@@ -21790,7 +21058,7 @@
         <v>-96030608.61469522</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>2.034</v>
@@ -21829,7 +21097,7 @@
         <v>-92345450.45059521</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I626" t="n">
         <v>2.035</v>
@@ -21868,11 +21136,9 @@
         <v>-92345450.45059521</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
-      </c>
-      <c r="I627" t="n">
-        <v>2.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21907,11 +21173,9 @@
         <v>-92345450.45059521</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
-      </c>
-      <c r="I628" t="n">
-        <v>2.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21946,7 +21210,7 @@
         <v>-96500098.58029522</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I629" t="n">
         <v>2.037</v>
@@ -21985,11 +21249,9 @@
         <v>-96500098.58029522</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
-      </c>
-      <c r="I630" t="n">
-        <v>2.034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -22024,7 +21286,7 @@
         <v>-96498848.86339521</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>2.034</v>
@@ -22063,7 +21325,7 @@
         <v>-96501105.42549521</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I632" t="n">
         <v>2.057</v>
@@ -22102,7 +21364,7 @@
         <v>-96096781.90869521</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I633" t="n">
         <v>2.05</v>
@@ -22141,7 +21403,7 @@
         <v>-93705251.76259521</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I634" t="n">
         <v>2.088</v>
@@ -22180,11 +21442,9 @@
         <v>-89163004.56909521</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
-      </c>
-      <c r="I635" t="n">
-        <v>2.148</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22441,11 +21701,9 @@
         <v>-89457097.42659342</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
-      </c>
-      <c r="I642" t="n">
-        <v>2.107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
@@ -22480,11 +21738,9 @@
         <v>-89456860.80529343</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
-      </c>
-      <c r="I643" t="n">
-        <v>2.107</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
@@ -22519,11 +21775,9 @@
         <v>-89007031.16479522</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
-      </c>
-      <c r="I644" t="n">
-        <v>2.114</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
@@ -22558,11 +21812,9 @@
         <v>-89722804.68269522</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
-      </c>
-      <c r="I645" t="n">
-        <v>2.129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
@@ -23596,11 +22848,9 @@
         <v>-90273311.56849523</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="n">
-        <v>2.098</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -24486,9 +23736,11 @@
         <v>-112685773.1675952</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>2.09</v>
+      </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -24523,7 +23775,7 @@
         <v>-112685773.1675952</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>2.077</v>
@@ -24562,9 +23814,11 @@
         <v>-112685533.1675952</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>2.077</v>
+      </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr">
         <is>
@@ -24599,7 +23853,7 @@
         <v>-112688053.1675952</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>2.09</v>
@@ -24638,9 +23892,11 @@
         <v>-112889122.9994952</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>2.089</v>
+      </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr">
         <is>
@@ -24675,9 +23931,11 @@
         <v>-112806394.1992536</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>2.077</v>
+      </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr">
         <is>
@@ -24712,9 +23970,11 @@
         <v>-112806394.1992536</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>2.089</v>
+      </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr">
         <is>
@@ -25341,9 +24601,11 @@
         <v>-104446319.7827808</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -25378,9 +24640,11 @@
         <v>-104403604.4079808</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -25489,11 +24753,9 @@
         <v>-104770066.0555808</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
-      </c>
-      <c r="I724" t="n">
-        <v>2.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -26231,11 +25493,9 @@
         <v>-102765474.2306555</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="n">
-        <v>2.165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -26270,11 +25530,9 @@
         <v>-102765474.2306555</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="n">
-        <v>2.165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -26346,11 +25604,9 @@
         <v>-102991272.7531555</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="n">
-        <v>2.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -26385,11 +25641,9 @@
         <v>-102952948.2102555</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="n">
-        <v>2.145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -26424,11 +25678,9 @@
         <v>-103032352.1165555</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="n">
-        <v>2.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -29793,9 +29045,11 @@
         <v>-114892839.3075635</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>2.13</v>
+      </c>
       <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
@@ -29830,9 +29084,11 @@
         <v>-114892839.3075635</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>2.12</v>
+      </c>
       <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
@@ -29867,9 +29123,11 @@
         <v>-114892839.3075635</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>2.12</v>
+      </c>
       <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
@@ -29904,9 +29162,11 @@
         <v>-114903981.5731634</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>2.12</v>
+      </c>
       <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
@@ -29941,9 +29201,11 @@
         <v>-114686882.9171634</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>2.115</v>
+      </c>
       <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
@@ -29978,9 +29240,11 @@
         <v>-117091640.0262634</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>2.116</v>
+      </c>
       <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
@@ -30015,9 +29279,11 @@
         <v>-116502384.2854635</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>2.101</v>
+      </c>
       <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
@@ -30052,9 +29318,11 @@
         <v>-116502384.2854635</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>2.103</v>
+      </c>
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
@@ -30089,9 +29357,11 @@
         <v>-116493022.6455635</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>2.103</v>
+      </c>
       <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
@@ -30422,9 +29692,11 @@
         <v>-124608954.5866314</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
@@ -30533,9 +29805,11 @@
         <v>-124079511.5981314</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>2.099</v>
+      </c>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -30570,9 +29844,11 @@
         <v>-124079511.5981314</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>2.099</v>
+      </c>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -30607,9 +29883,11 @@
         <v>-124433138.9234314</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>2.099</v>
+      </c>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -30644,9 +29922,11 @@
         <v>-124713051.2432314</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>2.095</v>
+      </c>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -30681,9 +29961,11 @@
         <v>-124459409.4333314</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>2.087</v>
+      </c>
       <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
@@ -30718,9 +30000,11 @@
         <v>-122171213.0701635</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>2.092</v>
+      </c>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -30755,9 +30039,11 @@
         <v>-122170963.0701635</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>2.099</v>
+      </c>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -30792,9 +30078,11 @@
         <v>-122177014.9617635</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>2.112</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -30866,9 +30154,11 @@
         <v>-122175634.3218635</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>2.121</v>
+      </c>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -31532,11 +30822,9 @@
         <v>-121498348.1525635</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
-      </c>
-      <c r="I887" t="n">
-        <v>2.123</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -32311,11 +31599,9 @@
         <v>-122093964.3778458</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
-      </c>
-      <c r="I908" t="n">
-        <v>2.188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -32350,11 +31636,9 @@
         <v>-117826599.6294458</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
-      </c>
-      <c r="I909" t="n">
-        <v>2.191</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -32389,11 +31673,9 @@
         <v>-119630815.4096458</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
-      </c>
-      <c r="I910" t="n">
-        <v>2.196</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -32428,11 +31710,9 @@
         <v>-119694462.1114458</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
-      </c>
-      <c r="I911" t="n">
-        <v>2.194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -32467,11 +31747,9 @@
         <v>-120220826.0285458</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
-      </c>
-      <c r="I912" t="n">
-        <v>2.175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -32506,11 +31784,9 @@
         <v>-121063512.2796458</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
-      </c>
-      <c r="I913" t="n">
-        <v>2.154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -32545,11 +31821,9 @@
         <v>-121063282.2796458</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
-      </c>
-      <c r="I914" t="n">
-        <v>2.152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -32584,11 +31858,9 @@
         <v>-121146517.4285458</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
-      </c>
-      <c r="I915" t="n">
-        <v>2.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
@@ -32623,11 +31895,9 @@
         <v>-120313262.8273458</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
-      </c>
-      <c r="I916" t="n">
-        <v>2.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -32662,11 +31932,9 @@
         <v>-120313032.8273458</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
-      </c>
-      <c r="I917" t="n">
-        <v>2.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -32701,11 +31969,9 @@
         <v>-121561393.8647459</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
-      </c>
-      <c r="I918" t="n">
-        <v>2.185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -32740,11 +32006,9 @@
         <v>-119855578.4887459</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
-      </c>
-      <c r="I919" t="n">
-        <v>2.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -32779,11 +32043,9 @@
         <v>-119855578.4887459</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
-      </c>
-      <c r="I920" t="n">
-        <v>2.185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -32818,11 +32080,9 @@
         <v>-119855811.4887459</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
-      </c>
-      <c r="I921" t="n">
-        <v>2.185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -32857,11 +32117,9 @@
         <v>-119855348.4887459</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
-      </c>
-      <c r="I922" t="n">
-        <v>2.152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -32896,11 +32154,9 @@
         <v>-119854655.4887459</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
-      </c>
-      <c r="I923" t="n">
-        <v>2.155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -32935,11 +32191,9 @@
         <v>-119854887.4887459</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
-      </c>
-      <c r="I924" t="n">
-        <v>2.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -32974,11 +32228,9 @@
         <v>-119759633.3137459</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
-      </c>
-      <c r="I925" t="n">
-        <v>2.162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -33013,11 +32265,9 @@
         <v>-119794219.0528459</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
-      </c>
-      <c r="I926" t="n">
-        <v>2.178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -33052,11 +32302,9 @@
         <v>-119793758.0528459</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
-      </c>
-      <c r="I927" t="n">
-        <v>2.162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -33091,11 +32339,9 @@
         <v>-119793528.0528459</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
-      </c>
-      <c r="I928" t="n">
-        <v>2.165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -33130,11 +32376,9 @@
         <v>-120030499.1346458</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
-      </c>
-      <c r="I929" t="n">
-        <v>2.178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -33169,11 +32413,9 @@
         <v>-120030499.1346458</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
-      </c>
-      <c r="I930" t="n">
-        <v>2.165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -33208,7 +32450,7 @@
         <v>-120565441.1941458</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I931" t="n">
         <v>2.165</v>
@@ -33247,7 +32489,7 @@
         <v>-122362205.2459458</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I932" t="n">
         <v>2.154</v>
@@ -33286,11 +32528,9 @@
         <v>-120998904.5028458</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
-      </c>
-      <c r="I933" t="n">
-        <v>2.152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -33325,7 +32565,7 @@
         <v>-120998904.5028458</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I934" t="n">
         <v>2.155</v>
@@ -33364,11 +32604,9 @@
         <v>-120962594.8652458</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
-      </c>
-      <c r="I935" t="n">
-        <v>2.155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -33403,11 +32641,9 @@
         <v>-120963538.7531458</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
-      </c>
-      <c r="I936" t="n">
-        <v>2.169</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -33627,11 +32863,9 @@
         <v>-121032110.2117458</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
-      </c>
-      <c r="I942" t="n">
-        <v>2.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -33666,11 +32900,9 @@
         <v>-121032834.2117458</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
-      </c>
-      <c r="I943" t="n">
-        <v>2.177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -33705,11 +32937,9 @@
         <v>-121033605.2117458</v>
       </c>
       <c r="H944" t="n">
-        <v>2</v>
-      </c>
-      <c r="I944" t="n">
-        <v>2.175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -33781,11 +33011,9 @@
         <v>-120888346.8075458</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
-      </c>
-      <c r="I946" t="n">
-        <v>2.175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -34523,11 +33751,9 @@
         <v>-120044988.8875441</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
-      </c>
-      <c r="I966" t="n">
-        <v>2.187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -34562,11 +33788,9 @@
         <v>-120480610.2809441</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
-      </c>
-      <c r="I967" t="n">
-        <v>2.183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -34638,7 +33862,7 @@
         <v>-120001394.0737441</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I969" t="n">
         <v>2.17</v>
@@ -34677,11 +33901,9 @@
         <v>-120002594.0737441</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
-      </c>
-      <c r="I970" t="n">
-        <v>2.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -34716,11 +33938,9 @@
         <v>-120004024.0737441</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
-      </c>
-      <c r="I971" t="n">
-        <v>2.178</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -34755,9 +33975,11 @@
         <v>-119881073.7288698</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
-      </c>
-      <c r="I972" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I972" t="n">
+        <v>2.176</v>
+      </c>
       <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
@@ -34829,11 +34051,9 @@
         <v>-119882444.7889891</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
-      </c>
-      <c r="I974" t="n">
-        <v>2.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -34868,7 +34088,7 @@
         <v>-119882184.7889891</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I975" t="n">
         <v>2.178</v>
@@ -34907,11 +34127,9 @@
         <v>-119882184.7889891</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
-      </c>
-      <c r="I976" t="n">
-        <v>2.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
@@ -34946,11 +34164,9 @@
         <v>-119864215.1892634</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
-      </c>
-      <c r="I977" t="n">
-        <v>2.179</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
@@ -34985,11 +34201,9 @@
         <v>-119864215.1892634</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
-      </c>
-      <c r="I978" t="n">
-        <v>2.193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -35024,11 +34238,9 @@
         <v>-119864215.1892634</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
-      </c>
-      <c r="I979" t="n">
-        <v>2.193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -35063,11 +34275,9 @@
         <v>-119422274.2403634</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
-      </c>
-      <c r="I980" t="n">
-        <v>2.193</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -35102,11 +34312,9 @@
         <v>-117719091.8467634</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
-      </c>
-      <c r="I981" t="n">
-        <v>2.194</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -35141,11 +34349,9 @@
         <v>-117518848.9070635</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
-      </c>
-      <c r="I982" t="n">
-        <v>2.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -35180,11 +34386,9 @@
         <v>-117275695.3503634</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
-      </c>
-      <c r="I983" t="n">
-        <v>2.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -35219,11 +34423,9 @@
         <v>-116945681.4284634</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
-      </c>
-      <c r="I984" t="n">
-        <v>2.214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
@@ -35258,11 +34460,9 @@
         <v>-114711816.5677422</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
-      </c>
-      <c r="I985" t="n">
-        <v>2.225</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -35297,11 +34497,9 @@
         <v>-112572468.8836516</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
-      </c>
-      <c r="I986" t="n">
-        <v>2.246</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
@@ -35336,11 +34534,9 @@
         <v>-118265536.4867789</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
-      </c>
-      <c r="I987" t="n">
-        <v>2.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
@@ -35375,16 +34571,18 @@
         <v>-111052706.3887789</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L988" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L988" t="n">
+        <v>1</v>
+      </c>
       <c r="M988" t="inlineStr"/>
     </row>
     <row r="989">
@@ -35410,15 +34608,13 @@
         <v>-107743683.1071789</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
-      </c>
-      <c r="I989" t="n">
-        <v>2.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L989" t="n">
@@ -35449,7 +34645,7 @@
         <v>-105282160.6525789</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35486,7 +34682,7 @@
         <v>-108457862.8872789</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35523,7 +34719,7 @@
         <v>-109143131.4285789</v>
       </c>
       <c r="H992" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35560,7 +34756,7 @@
         <v>-110235971.2869789</v>
       </c>
       <c r="H993" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35967,9 +35163,11 @@
         <v>-111474987.6466789</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>2.25</v>
+      </c>
       <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
@@ -36189,9 +35387,11 @@
         <v>-111303354.2909603</v>
       </c>
       <c r="H1010" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1010" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>2.233</v>
+      </c>
       <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
@@ -36226,9 +35426,11 @@
         <v>-110770321.7548603</v>
       </c>
       <c r="H1011" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1011" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>2.265</v>
+      </c>
       <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
@@ -37869,6 +37071,6 @@
       <c r="M1055" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FNB.xlsx
+++ b/BackTest/2020-01-16 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-27052235.47539999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30250885.5172</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-28271564.5363</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-28916742.95169999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-27418500.44349999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-26690053.22819999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-25841812.10119999</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-26002307.77819999</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-25196961.81539999</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-25193826.50259999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-33171517.73929999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-33191137.61779999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-35092113.92042512</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-34609272.60642511</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-34609272.60642511</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-34609272.60642511</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-35128987.36832511</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-35086717.18472511</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-35086717.18472511</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-35118340.45982511</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-32905641.55522511</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-32870015.89812511</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-32391571.57772511</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-32391571.57772511</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-33119231.88542511</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-33096777.40242511</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-27690204.83082511</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-26918313.03672511</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-26918313.03672511</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-26918313.03672511</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-26918313.03672511</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-30662835.4071251</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-30662835.4071251</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-30442340.7383251</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-74943181.82853329</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-80254804.7488333</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-80707003.92193329</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20746,17 +20746,11 @@
         <v>-93885961.48349035</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20785,17 +20779,11 @@
         <v>-93787000.78869034</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>2.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20824,17 +20812,11 @@
         <v>-92581774.57619523</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>2.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20863,17 +20845,11 @@
         <v>-92581774.57619523</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>2.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20902,17 +20878,11 @@
         <v>-92120326.44939522</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>2.052</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20941,17 +20911,11 @@
         <v>-92120326.44939522</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20980,17 +20944,11 @@
         <v>-95084768.39649522</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
-      </c>
-      <c r="I623" t="n">
-        <v>2.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21019,17 +20977,11 @@
         <v>-96098767.39649522</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>2.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21058,17 +21010,11 @@
         <v>-96030608.61469522</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>2.034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21097,17 +21043,11 @@
         <v>-92345450.45059521</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>2.035</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21140,11 +21080,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21177,11 +21113,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21210,17 +21142,11 @@
         <v>-96500098.58029522</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>2.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21253,11 +21179,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21286,17 +21208,11 @@
         <v>-96498848.86339521</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>2.034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21325,17 +21241,11 @@
         <v>-96501105.42549521</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>2.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21364,17 +21274,11 @@
         <v>-96096781.90869521</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21403,17 +21307,11 @@
         <v>-93705251.76259521</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>2.088</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21446,11 +21344,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21483,11 +21377,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21520,11 +21410,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21557,11 +21443,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21594,11 +21476,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21631,11 +21509,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21668,11 +21542,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21705,11 +21575,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21742,11 +21608,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21779,11 +21641,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21816,11 +21674,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21853,11 +21707,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21890,11 +21740,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21927,11 +21773,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -21964,11 +21806,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22001,11 +21839,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22038,11 +21872,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22075,11 +21905,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22112,11 +21938,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22149,11 +21971,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22186,11 +22004,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22223,11 +22037,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22260,11 +22070,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22297,11 +22103,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22334,11 +22136,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22371,11 +22169,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22408,11 +22202,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22445,11 +22235,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22482,11 +22268,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22519,11 +22301,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22556,11 +22334,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22593,11 +22367,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22630,11 +22400,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22667,11 +22433,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22704,11 +22466,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22741,11 +22499,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22778,11 +22532,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22815,11 +22565,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22852,11 +22598,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -22889,11 +22631,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -22926,11 +22664,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -22963,11 +22697,7 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23000,11 +22730,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23037,11 +22763,7 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23074,11 +22796,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23111,11 +22829,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23148,11 +22862,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23185,11 +22895,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23222,11 +22928,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23259,11 +22961,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23296,11 +22994,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23333,11 +23027,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23370,11 +23060,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23407,11 +23093,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23444,11 +23126,7 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23481,11 +23159,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23192,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23555,11 +23225,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23592,11 +23258,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23629,11 +23291,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23666,11 +23324,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23703,11 +23357,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23736,17 +23386,11 @@
         <v>-112685773.1675952</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>2.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23775,17 +23419,11 @@
         <v>-112685773.1675952</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>2.077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23814,17 +23452,11 @@
         <v>-112685533.1675952</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>2.077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23853,17 +23485,11 @@
         <v>-112688053.1675952</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>2.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23892,17 +23518,11 @@
         <v>-112889122.9994952</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>2.089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23931,17 +23551,11 @@
         <v>-112806394.1992536</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>2.077</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23970,17 +23584,11 @@
         <v>-112806394.1992536</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>2.089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +23621,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24050,11 +23654,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24087,11 +23687,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24124,11 +23720,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24161,11 +23753,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24198,11 +23786,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24235,11 +23819,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24272,11 +23852,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24309,11 +23885,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24346,11 +23918,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24383,11 +23951,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24420,11 +23984,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24457,11 +24017,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24494,11 +24050,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24531,11 +24083,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24568,11 +24116,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24601,17 +24145,11 @@
         <v>-104446319.7827808</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>2.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24640,17 +24178,11 @@
         <v>-104403604.4079808</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>2.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24683,11 +24215,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24720,11 +24248,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24757,11 +24281,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24794,11 +24314,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24831,11 +24347,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24868,11 +24380,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24905,11 +24413,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24942,11 +24446,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24979,11 +24479,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25016,11 +24512,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25053,11 +24545,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25090,11 +24578,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25127,11 +24611,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25164,11 +24644,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25201,11 +24677,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25238,11 +24710,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25275,11 +24743,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25312,11 +24776,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25349,11 +24809,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25386,11 +24842,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25423,11 +24875,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25460,11 +24908,7 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25497,11 +24941,7 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25534,11 +24974,7 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25571,11 +25007,7 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25608,11 +25040,7 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25645,11 +25073,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25682,11 +25106,7 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25719,11 +25139,7 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25756,11 +25172,7 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25793,11 +25205,7 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25830,11 +25238,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25867,11 +25271,7 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25904,11 +25304,7 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25941,11 +25337,7 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25978,11 +25370,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26015,11 +25403,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26052,11 +25436,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26089,11 +25469,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26126,11 +25502,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26163,11 +25535,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26196,15 +25564,11 @@
         <v>-97802367.52101612</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26233,15 +25597,11 @@
         <v>-98033800.85421611</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26274,11 +25634,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26311,11 +25667,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26348,11 +25700,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26385,11 +25733,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +25766,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26459,11 +25799,7 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26496,11 +25832,7 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26529,15 +25861,11 @@
         <v>-97719694.8350171</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26566,15 +25894,11 @@
         <v>-97697880.6569286</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26603,15 +25927,11 @@
         <v>-98882788.48832861</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26640,15 +25960,11 @@
         <v>-99186377.4221286</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26681,11 +25997,7 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26718,11 +26030,7 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26755,11 +26063,7 @@
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26792,11 +26096,7 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26829,11 +26129,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26866,11 +26162,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26903,11 +26195,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26940,11 +26228,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26977,11 +26261,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27014,11 +26294,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27051,11 +26327,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27088,11 +26360,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27125,11 +26393,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27162,11 +26426,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27199,11 +26459,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27236,11 +26492,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27273,11 +26525,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27310,11 +26558,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27347,11 +26591,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27384,11 +26624,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27421,11 +26657,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27458,11 +26690,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27495,11 +26723,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27532,11 +26756,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27569,11 +26789,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27606,11 +26822,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27643,11 +26855,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27680,11 +26888,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27717,11 +26921,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27754,11 +26954,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27791,11 +26987,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27828,11 +27020,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27865,11 +27053,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27902,11 +27086,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27939,11 +27119,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27976,11 +27152,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28013,11 +27185,7 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28050,11 +27218,7 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28087,11 +27251,7 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28124,11 +27284,7 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28161,11 +27317,7 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28198,11 +27350,7 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28235,11 +27383,7 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28272,11 +27416,7 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -28309,11 +27449,7 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -28346,11 +27482,7 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -28383,11 +27515,7 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -28420,11 +27548,7 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -28457,11 +27581,7 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -28494,11 +27614,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -28531,11 +27647,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -28568,11 +27680,7 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -28605,11 +27713,7 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -28642,11 +27746,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -28679,11 +27779,7 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -28716,11 +27812,7 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -28753,11 +27845,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -28790,11 +27878,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -28827,11 +27911,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28864,11 +27944,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28901,11 +27977,7 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28938,11 +28010,7 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28975,11 +28043,7 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29012,11 +28076,7 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29045,17 +28105,11 @@
         <v>-114892839.3075635</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>2.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29084,17 +28138,11 @@
         <v>-114892839.3075635</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>2.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29123,17 +28171,11 @@
         <v>-114892839.3075635</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>2.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29162,17 +28204,11 @@
         <v>-114903981.5731634</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>2.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29201,17 +28237,11 @@
         <v>-114686882.9171634</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>2.115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29240,17 +28270,11 @@
         <v>-117091640.0262634</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>2.116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -29279,17 +28303,11 @@
         <v>-116502384.2854635</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>2.101</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -29326,7 +28344,7 @@
       <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L847" t="n">
@@ -29396,9 +28414,11 @@
         <v>-116409366.8950635</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>2.111</v>
+      </c>
       <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
@@ -29433,9 +28453,11 @@
         <v>-116408210.8426635</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>2.112</v>
+      </c>
       <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
@@ -29470,9 +28492,11 @@
         <v>-116408210.8426635</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>2.113</v>
+      </c>
       <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
@@ -29507,9 +28531,11 @@
         <v>-116454882.1858635</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>2.113</v>
+      </c>
       <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
@@ -29544,9 +28570,11 @@
         <v>-121723172.5936635</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>2.105</v>
+      </c>
       <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
@@ -29618,9 +28646,11 @@
         <v>-123931700.2353314</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>2.112</v>
+      </c>
       <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
@@ -29731,9 +28761,11 @@
         <v>-124079955.5981314</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>2.081</v>
+      </c>
       <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
@@ -29768,9 +28800,11 @@
         <v>-124079511.5981314</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>2.095</v>
+      </c>
       <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
@@ -30154,11 +29188,9 @@
         <v>-122175634.3218635</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>2.121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
@@ -32450,11 +31482,9 @@
         <v>-120565441.1941458</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
-      </c>
-      <c r="I931" t="n">
-        <v>2.165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -32489,11 +31519,9 @@
         <v>-122362205.2459458</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
-      </c>
-      <c r="I932" t="n">
-        <v>2.154</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -32565,11 +31593,9 @@
         <v>-120998904.5028458</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
-      </c>
-      <c r="I934" t="n">
-        <v>2.155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -33048,9 +32074,11 @@
         <v>-120721042.2348458</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>2.173</v>
+      </c>
       <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
@@ -33085,9 +32113,11 @@
         <v>-120722463.7567458</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>2.175</v>
+      </c>
       <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
@@ -33122,9 +32152,11 @@
         <v>-120722463.7567458</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>2.167</v>
+      </c>
       <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
@@ -33159,9 +32191,11 @@
         <v>-120528319.3890458</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>2.167</v>
+      </c>
       <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
@@ -33233,9 +32267,11 @@
         <v>-120535319.3890458</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>2.174</v>
+      </c>
       <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
@@ -33270,9 +32306,11 @@
         <v>-120536383.3890458</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>2.173</v>
+      </c>
       <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
@@ -33307,9 +32345,11 @@
         <v>-120536383.3890458</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>2.168</v>
+      </c>
       <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
@@ -33344,9 +32384,11 @@
         <v>-120536123.3890458</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>2.168</v>
+      </c>
       <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
@@ -33381,9 +32423,11 @@
         <v>-120536123.3890458</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>2.172</v>
+      </c>
       <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
@@ -33418,9 +32462,11 @@
         <v>-120536123.3890458</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>2.172</v>
+      </c>
       <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
@@ -33455,9 +32501,11 @@
         <v>-120361720.3890458</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>2.172</v>
+      </c>
       <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
@@ -33492,9 +32540,11 @@
         <v>-120280941.2620458</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>2.173</v>
+      </c>
       <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
@@ -33529,9 +32579,11 @@
         <v>-119997261.2608987</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>2.178</v>
+      </c>
       <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
@@ -33566,9 +32618,11 @@
         <v>-119997261.2608987</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>2.189</v>
+      </c>
       <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
@@ -33603,9 +32657,11 @@
         <v>-119376395.7821714</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>2.189</v>
+      </c>
       <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
@@ -33640,9 +32696,11 @@
         <v>-119376395.7821714</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
-      </c>
-      <c r="I963" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I963" t="n">
+        <v>2.19</v>
+      </c>
       <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
@@ -33677,9 +32735,11 @@
         <v>-119376395.7822441</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>2.19</v>
+      </c>
       <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
@@ -33714,9 +32774,11 @@
         <v>-120044468.8875441</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>2.189</v>
+      </c>
       <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
@@ -33751,9 +32813,11 @@
         <v>-120044988.8875441</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>2.187</v>
+      </c>
       <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
@@ -33788,9 +32852,11 @@
         <v>-120480610.2809441</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
-      </c>
-      <c r="I967" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I967" t="n">
+        <v>2.183</v>
+      </c>
       <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
@@ -33825,9 +32891,11 @@
         <v>-120071447.3134441</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>2.169</v>
+      </c>
       <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
@@ -33901,9 +32969,11 @@
         <v>-120002594.0737441</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
-      </c>
-      <c r="I970" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I970" t="n">
+        <v>2.18</v>
+      </c>
       <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
@@ -33938,9 +33008,11 @@
         <v>-120004024.0737441</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
-      </c>
-      <c r="I971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I971" t="n">
+        <v>2.178</v>
+      </c>
       <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
@@ -34014,9 +33086,11 @@
         <v>-119882184.7889891</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
-      </c>
-      <c r="I973" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I973" t="n">
+        <v>2.18</v>
+      </c>
       <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
@@ -34051,9 +33125,11 @@
         <v>-119882444.7889891</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
-      </c>
-      <c r="I974" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I974" t="n">
+        <v>2.179</v>
+      </c>
       <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
@@ -34127,9 +33203,11 @@
         <v>-119882184.7889891</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
-      </c>
-      <c r="I976" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I976" t="n">
+        <v>2.179</v>
+      </c>
       <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
@@ -34164,9 +33242,11 @@
         <v>-119864215.1892634</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
-      </c>
-      <c r="I977" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I977" t="n">
+        <v>2.179</v>
+      </c>
       <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
@@ -34201,9 +33281,11 @@
         <v>-119864215.1892634</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
-      </c>
-      <c r="I978" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I978" t="n">
+        <v>2.193</v>
+      </c>
       <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
@@ -34238,9 +33320,11 @@
         <v>-119864215.1892634</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
-      </c>
-      <c r="I979" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I979" t="n">
+        <v>2.193</v>
+      </c>
       <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
@@ -34275,9 +33359,11 @@
         <v>-119422274.2403634</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
-      </c>
-      <c r="I980" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I980" t="n">
+        <v>2.193</v>
+      </c>
       <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
@@ -34312,9 +33398,11 @@
         <v>-117719091.8467634</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
-      </c>
-      <c r="I981" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I981" t="n">
+        <v>2.194</v>
+      </c>
       <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
@@ -34349,9 +33437,11 @@
         <v>-117518848.9070635</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
-      </c>
-      <c r="I982" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I982" t="n">
+        <v>2.2</v>
+      </c>
       <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
@@ -34386,9 +33476,11 @@
         <v>-117275695.3503634</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
-      </c>
-      <c r="I983" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I983" t="n">
+        <v>2.21</v>
+      </c>
       <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
@@ -34423,9 +33515,11 @@
         <v>-116945681.4284634</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>2.214</v>
+      </c>
       <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
@@ -34460,9 +33554,11 @@
         <v>-114711816.5677422</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>2.225</v>
+      </c>
       <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
@@ -34534,18 +33630,16 @@
         <v>-118265536.4867789</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L987" t="n">
-        <v>1</v>
-      </c>
+      <c r="L987" t="inlineStr"/>
       <c r="M987" t="inlineStr"/>
     </row>
     <row r="988">
@@ -34571,15 +33665,11 @@
         <v>-111052706.3887789</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K988" t="inlineStr"/>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -34608,15 +33698,11 @@
         <v>-107743683.1071789</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K989" t="inlineStr"/>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -34645,15 +33731,11 @@
         <v>-105282160.6525789</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K990" t="inlineStr"/>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -34686,11 +33768,7 @@
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K991" t="inlineStr"/>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -34723,11 +33801,7 @@
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K992" t="inlineStr"/>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -34760,11 +33834,7 @@
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K993" t="inlineStr"/>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -34797,11 +33867,7 @@
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K994" t="inlineStr"/>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -34834,11 +33900,7 @@
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K995" t="inlineStr"/>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34871,11 +33933,7 @@
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K996" t="inlineStr"/>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34908,11 +33966,7 @@
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K997" t="inlineStr"/>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34945,11 +33999,7 @@
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K998" t="inlineStr"/>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34982,11 +34032,7 @@
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K999" t="inlineStr"/>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -35019,11 +34065,7 @@
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1000" t="inlineStr"/>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -35056,11 +34098,7 @@
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1001" t="inlineStr"/>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -35093,11 +34131,7 @@
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1002" t="inlineStr"/>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -35130,11 +34164,7 @@
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1003" t="inlineStr"/>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -35163,17 +34193,11 @@
         <v>-111474987.6466789</v>
       </c>
       <c r="H1004" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1004" t="n">
-        <v>2.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1004" t="inlineStr"/>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -35206,11 +34230,7 @@
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1005" t="inlineStr"/>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -35243,11 +34263,7 @@
       </c>
       <c r="I1006" t="inlineStr"/>
       <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1006" t="inlineStr"/>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -35280,11 +34296,7 @@
       </c>
       <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1007" t="inlineStr"/>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -35317,11 +34329,7 @@
       </c>
       <c r="I1008" t="inlineStr"/>
       <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1008" t="inlineStr"/>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -35354,11 +34362,7 @@
       </c>
       <c r="I1009" t="inlineStr"/>
       <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1009" t="inlineStr"/>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -35387,17 +34391,11 @@
         <v>-111303354.2909603</v>
       </c>
       <c r="H1010" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1010" t="n">
-        <v>2.233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1010" t="inlineStr"/>
       <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1010" t="inlineStr"/>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -35426,17 +34424,11 @@
         <v>-110770321.7548603</v>
       </c>
       <c r="H1011" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1011" t="n">
-        <v>2.265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1011" t="inlineStr"/>
       <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1011" t="inlineStr"/>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -35465,15 +34457,11 @@
         <v>-110770321.7548603</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1012" t="inlineStr"/>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -35502,15 +34490,11 @@
         <v>-110869256.9091603</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1013" t="inlineStr"/>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -35539,15 +34523,11 @@
         <v>-110836233.4937603</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1014" t="inlineStr"/>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -35576,15 +34556,11 @@
         <v>-111378811.7837603</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1015" t="inlineStr"/>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -35617,11 +34593,7 @@
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1016" t="inlineStr"/>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -35650,15 +34622,11 @@
         <v>-111533175.3433603</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1017" t="inlineStr"/>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -35687,15 +34655,11 @@
         <v>-110984122.4597223</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1018" t="inlineStr"/>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -35724,15 +34688,11 @@
         <v>-110984122.4597223</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1019" t="inlineStr"/>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -35761,15 +34721,11 @@
         <v>-110878167.5432223</v>
       </c>
       <c r="H1020" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1020" t="inlineStr"/>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -35802,11 +34758,7 @@
       </c>
       <c r="I1021" t="inlineStr"/>
       <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1021" t="inlineStr"/>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -35835,15 +34787,11 @@
         <v>-111122152.7629843</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1022" t="inlineStr"/>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -35872,15 +34820,11 @@
         <v>-111122152.7629843</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1023" t="inlineStr"/>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -35913,11 +34857,7 @@
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1024" t="inlineStr"/>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -35950,11 +34890,7 @@
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1025" t="inlineStr"/>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -35987,11 +34923,7 @@
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1026" t="inlineStr"/>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -36024,11 +34956,7 @@
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1027" t="inlineStr"/>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -36061,11 +34989,7 @@
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1028" t="inlineStr"/>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -36098,11 +35022,7 @@
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1029" t="inlineStr"/>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -36135,11 +35055,7 @@
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1030" t="inlineStr"/>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -36172,11 +35088,7 @@
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1031" t="inlineStr"/>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -36209,11 +35121,7 @@
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1032" t="inlineStr"/>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -36246,11 +35154,7 @@
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1033" t="inlineStr"/>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -36283,11 +35187,7 @@
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1034" t="inlineStr"/>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -36320,11 +35220,7 @@
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1035" t="inlineStr"/>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -36357,11 +35253,7 @@
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1036" t="inlineStr"/>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -36394,11 +35286,7 @@
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1037" t="inlineStr"/>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -36431,11 +35319,7 @@
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1038" t="inlineStr"/>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -36468,11 +35352,7 @@
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1039" t="inlineStr"/>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -36505,11 +35385,7 @@
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1040" t="inlineStr"/>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -36542,11 +35418,7 @@
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -36579,11 +35451,7 @@
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1042" t="inlineStr"/>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -36616,11 +35484,7 @@
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1043" t="inlineStr"/>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -36653,11 +35517,7 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1044" t="inlineStr"/>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -36690,11 +35550,7 @@
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1045" t="inlineStr"/>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -36727,11 +35583,7 @@
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1046" t="inlineStr"/>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -36764,11 +35616,7 @@
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1047" t="inlineStr"/>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -36801,11 +35649,7 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1048" t="inlineStr"/>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -36838,11 +35682,7 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1049" t="inlineStr"/>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -36875,11 +35715,7 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1050" t="inlineStr"/>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -36912,11 +35748,7 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1051" t="inlineStr"/>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -36949,11 +35781,7 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1052" t="inlineStr"/>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -36986,11 +35814,7 @@
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1053" t="inlineStr"/>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -37023,11 +35847,7 @@
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1054" t="inlineStr"/>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -37060,17 +35880,13 @@
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1055" t="inlineStr"/>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
       <c r="M1055" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest FNB.xlsx
+++ b/BackTest/2020-01-16 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>-26344466.70169999</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-27052235.47539999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-27609817.19529999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-29973259.9408</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-29897339.0101</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-30250885.5172</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-28271564.5363</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-28916742.95169999</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-27336884.4832</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-27418500.44349999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-26690053.22819999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-25841812.10119999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-26002307.77819999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-25196961.81539999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-25193826.50259999</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-25263826.50259999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-25928393.79059999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-28512094.92689999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-28512094.92689999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-28391459.98039999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-28322890.48149999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-30323892.81769999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-31788268.98779999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-32227030.09919999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-33171517.73929999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-33107930.18179999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-33191137.61779999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-33191137.61779999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-33284236.72949999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-33234236.72949999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-33188683.23199999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-34973438.93549999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-34972929.29479999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-34572590.10169999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-37677702.03809999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-37526523.48999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-37839945.87369999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-37819945.87369999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-38165197.26409999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-38165197.26409999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-38161149.67609999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-38201984.48379999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-38201984.48379999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-40170377.18029999</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-43728250.66319999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-43728250.66319999</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-36802618.28092512</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-35174981.71902512</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-26918313.03672511</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-27286536.87192511</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-27286536.87192511</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-27284538.87192511</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-27171228.16862511</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-27186721.47392511</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-27491398.96172511</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-27531701.39392511</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-27581429.50322511</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-27603760.50322511</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-27603760.50322511</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-27614744.21062511</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-27614144.21062511</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-27614444.21062511</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-27547381.66832511</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-27576135.58462511</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-27575535.58462511</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-27575235.58462511</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-27575235.58462511</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-28375235.58462511</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-28381732.66312511</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-28409134.64792511</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-28074417.20692511</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-29327109.48942511</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-28975137.95602511</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-28976469.95602511</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-28990816.98552511</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-28777816.66042511</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-28778316.66042511</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-28780316.66042511</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-28781260.66042511</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-28779928.66042511</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-28793471.53712511</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-25461944.74932511</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-25295436.19252511</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-24581271.39432511</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-25674981.70602511</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-25674981.70602511</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-25674481.70602511</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-25833860.03152511</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-25854147.36272511</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-27404232.16002511</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-26197650.36822511</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-26221415.04552511</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-26260748.04552511</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-26260748.04552511</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-26260526.04552511</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-26262692.04552511</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-26594215.23562511</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-26488324.16642511</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-26488324.16642511</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-26402248.82972511</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-26440012.4524251</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-26440012.4524251</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-26386688.7079251</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-26399167.5718251</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-26388202.4357251</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-26541424.2535251</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-26551637.2786251</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-26554137.2786251</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-26441935.9150251</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-26441935.9150251</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-26443267.9150251</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-26455420.5401251</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-26455420.5401251</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-26759532.9135251</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-26334609.2607251</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-26334609.2607251</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-26334309.2607251</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-26335041.2607251</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-26337341.2607251</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-26337341.2607251</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-26749640.6083251</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-28337665.4391251</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-30662835.4071251</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-74943181.82853329</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-80254804.7488333</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-80707003.92193329</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-81096029.74643329</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-97802367.52101612</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-98033800.85421611</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-97719694.8350171</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-97697880.6569286</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-98882788.48832861</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-99186377.4221286</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -28336,17 +28336,11 @@
         <v>-116502384.2854635</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>2.103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28375,17 +28369,11 @@
         <v>-116493022.6455635</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>2.103</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28414,17 +28402,11 @@
         <v>-116409366.8950635</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>2.111</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28453,17 +28435,11 @@
         <v>-116408210.8426635</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>2.112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K850" t="inlineStr"/>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28492,17 +28468,11 @@
         <v>-116408210.8426635</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>2.113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K851" t="inlineStr"/>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28531,17 +28501,11 @@
         <v>-116454882.1858635</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>2.113</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K852" t="inlineStr"/>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28570,17 +28534,11 @@
         <v>-121723172.5936635</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>2.105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K853" t="inlineStr"/>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28613,11 +28571,7 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K854" t="inlineStr"/>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28646,17 +28600,11 @@
         <v>-123931700.2353314</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
-      </c>
-      <c r="I855" t="n">
-        <v>2.112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K855" t="inlineStr"/>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28689,11 +28637,7 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K856" t="inlineStr"/>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28722,17 +28666,11 @@
         <v>-124608954.5866314</v>
       </c>
       <c r="H857" t="n">
-        <v>1</v>
-      </c>
-      <c r="I857" t="n">
-        <v>2.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K857" t="inlineStr"/>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28761,17 +28699,11 @@
         <v>-124079955.5981314</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>2.081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K858" t="inlineStr"/>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28800,17 +28732,11 @@
         <v>-124079511.5981314</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>2.095</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K859" t="inlineStr"/>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28839,17 +28765,11 @@
         <v>-124079511.5981314</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>2.099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K860" t="inlineStr"/>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28878,17 +28798,11 @@
         <v>-124079511.5981314</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>2.099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K861" t="inlineStr"/>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28917,17 +28831,11 @@
         <v>-124433138.9234314</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>2.099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K862" t="inlineStr"/>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28964,7 +28872,7 @@
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L863" t="n">
@@ -29073,11 +28981,9 @@
         <v>-122170963.0701635</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>2.099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29112,11 +29018,9 @@
         <v>-122177014.9617635</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>2.112</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29336,9 +29240,11 @@
         <v>-122059232.9407635</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>2.101</v>
+      </c>
       <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
@@ -29373,9 +29279,11 @@
         <v>-122046203.7504635</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>2.102</v>
+      </c>
       <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
@@ -29484,9 +29392,11 @@
         <v>-123095765.9731635</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
@@ -29521,9 +29431,11 @@
         <v>-121499379.7625635</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>2.106</v>
+      </c>
       <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
@@ -29558,9 +29470,11 @@
         <v>-121428165.4535635</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>2.122</v>
+      </c>
       <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
@@ -29595,9 +29509,11 @@
         <v>-121193530.2148635</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>2.124</v>
+      </c>
       <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
@@ -29632,9 +29548,11 @@
         <v>-121497306.2121635</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>2.127</v>
+      </c>
       <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
@@ -29669,9 +29587,11 @@
         <v>-121496806.2121635</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>2.112</v>
+      </c>
       <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
@@ -29706,9 +29626,11 @@
         <v>-121497581.8195635</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>2.127</v>
+      </c>
       <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
@@ -29743,9 +29665,11 @@
         <v>-121497344.8195635</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>2.111</v>
+      </c>
       <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
@@ -29780,9 +29704,11 @@
         <v>-121498586.1525635</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>2.127</v>
+      </c>
       <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
@@ -29817,9 +29743,11 @@
         <v>-121498348.1525635</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>2.108</v>
+      </c>
       <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
@@ -29854,9 +29782,11 @@
         <v>-121498348.1525635</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>2.123</v>
+      </c>
       <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
@@ -29891,9 +29821,11 @@
         <v>-120536431.1434635</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>2.123</v>
+      </c>
       <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
@@ -29928,9 +29860,11 @@
         <v>-120515002.1434635</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I889" t="n">
+        <v>2.127</v>
+      </c>
       <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
@@ -29965,9 +29899,11 @@
         <v>-120515002.1434635</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>2.128</v>
+      </c>
       <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
@@ -30002,9 +29938,11 @@
         <v>-120510184.1434635</v>
       </c>
       <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I891" t="n">
+        <v>2.128</v>
+      </c>
       <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
@@ -30039,9 +29977,11 @@
         <v>-120561528.8365635</v>
       </c>
       <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I892" t="n">
+        <v>2.146</v>
+      </c>
       <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
@@ -30076,9 +30016,11 @@
         <v>-120291091.9322635</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>2.128</v>
+      </c>
       <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
@@ -30113,9 +30055,11 @@
         <v>-120765875.0835635</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>2.149</v>
+      </c>
       <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
@@ -30150,9 +30094,11 @@
         <v>-120765875.0835635</v>
       </c>
       <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>2.145</v>
+      </c>
       <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
@@ -30187,9 +30133,11 @@
         <v>-122141400.2254635</v>
       </c>
       <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>2.145</v>
+      </c>
       <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
@@ -30224,9 +30172,11 @@
         <v>-121793838.0485635</v>
       </c>
       <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>2.135</v>
+      </c>
       <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
@@ -30261,9 +30211,11 @@
         <v>-122349787.3175635</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>2.144</v>
+      </c>
       <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
@@ -30298,9 +30250,11 @@
         <v>-122347343.3175635</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>2.142</v>
+      </c>
       <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
@@ -30335,9 +30289,11 @@
         <v>-122347643.3175635</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>2.144</v>
+      </c>
       <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
@@ -30372,9 +30328,11 @@
         <v>-122347643.3175635</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>2.142</v>
+      </c>
       <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
@@ -30409,9 +30367,11 @@
         <v>-121085829.6941635</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>2.142</v>
+      </c>
       <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
@@ -30446,9 +30406,11 @@
         <v>-120749000.6753602</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>2.145</v>
+      </c>
       <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
@@ -30483,9 +30445,11 @@
         <v>-120631774.5541635</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>2.163</v>
+      </c>
       <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
@@ -30520,9 +30484,11 @@
         <v>-120300129.0562635</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>2.168</v>
+      </c>
       <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
@@ -30557,9 +30523,11 @@
         <v>-122733637.2552458</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>2.187</v>
+      </c>
       <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
@@ -30594,9 +30562,11 @@
         <v>-122733387.2552458</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>2.175</v>
+      </c>
       <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
@@ -30631,9 +30601,11 @@
         <v>-122093964.3778458</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>2.188</v>
+      </c>
       <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
@@ -30668,9 +30640,11 @@
         <v>-117826599.6294458</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>2.191</v>
+      </c>
       <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
@@ -30705,9 +30679,11 @@
         <v>-119630815.4096458</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>2.196</v>
+      </c>
       <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
@@ -30742,9 +30718,11 @@
         <v>-119694462.1114458</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>2.194</v>
+      </c>
       <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
@@ -30779,9 +30757,11 @@
         <v>-120220826.0285458</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>2.175</v>
+      </c>
       <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
@@ -30816,9 +30796,11 @@
         <v>-121063512.2796458</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>2.154</v>
+      </c>
       <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
@@ -30853,9 +30835,11 @@
         <v>-121063282.2796458</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>2.152</v>
+      </c>
       <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
@@ -30890,9 +30874,11 @@
         <v>-121146517.4285458</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>2.18</v>
+      </c>
       <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
@@ -30927,9 +30913,11 @@
         <v>-120313262.8273458</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>2.16</v>
+      </c>
       <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
@@ -30964,9 +30952,11 @@
         <v>-120313032.8273458</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>2.18</v>
+      </c>
       <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
@@ -31001,9 +30991,11 @@
         <v>-121561393.8647459</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>2.185</v>
+      </c>
       <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
@@ -31038,9 +31030,11 @@
         <v>-119855578.4887459</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>2.18</v>
+      </c>
       <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
@@ -31075,9 +31069,11 @@
         <v>-119855578.4887459</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I920" t="n">
+        <v>2.185</v>
+      </c>
       <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
@@ -31112,9 +31108,11 @@
         <v>-119855811.4887459</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>2.185</v>
+      </c>
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
@@ -31149,9 +31147,11 @@
         <v>-119855348.4887459</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>2.152</v>
+      </c>
       <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
@@ -31186,9 +31186,11 @@
         <v>-119854655.4887459</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>2.155</v>
+      </c>
       <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
@@ -31223,9 +31225,11 @@
         <v>-119854887.4887459</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>2.18</v>
+      </c>
       <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
@@ -31260,9 +31264,11 @@
         <v>-119759633.3137459</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>2.162</v>
+      </c>
       <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
@@ -31297,9 +31303,11 @@
         <v>-119794219.0528459</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>2.178</v>
+      </c>
       <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
@@ -31334,9 +31342,11 @@
         <v>-119793758.0528459</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>2.162</v>
+      </c>
       <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
@@ -31371,9 +31381,11 @@
         <v>-119793528.0528459</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>2.165</v>
+      </c>
       <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
@@ -31408,9 +31420,11 @@
         <v>-120030499.1346458</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>2.178</v>
+      </c>
       <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
@@ -31445,9 +31459,11 @@
         <v>-120030499.1346458</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>2.165</v>
+      </c>
       <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
@@ -31482,9 +31498,11 @@
         <v>-120565441.1941458</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>2.165</v>
+      </c>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -31519,9 +31537,11 @@
         <v>-122362205.2459458</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>2.154</v>
+      </c>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -31556,9 +31576,11 @@
         <v>-120998904.5028458</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>2.152</v>
+      </c>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -31593,9 +31615,11 @@
         <v>-120998904.5028458</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>2.155</v>
+      </c>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -31630,9 +31654,11 @@
         <v>-120962594.8652458</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>2.155</v>
+      </c>
       <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
@@ -31667,9 +31693,11 @@
         <v>-120963538.7531458</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>2.169</v>
+      </c>
       <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
@@ -31704,9 +31732,11 @@
         <v>-120962388.7531458</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>2.167</v>
+      </c>
       <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
@@ -31741,9 +31771,11 @@
         <v>-120962619.7531458</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>2.17</v>
+      </c>
       <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
@@ -31778,9 +31810,11 @@
         <v>-120949105.8294458</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>2.167</v>
+      </c>
       <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
@@ -31815,9 +31849,11 @@
         <v>-121053047.2117458</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>2.17</v>
+      </c>
       <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
@@ -31852,9 +31888,11 @@
         <v>-121052110.2117458</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>2.167</v>
+      </c>
       <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
@@ -31889,9 +31927,11 @@
         <v>-121032110.2117458</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>2.17</v>
+      </c>
       <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
@@ -31926,9 +31966,11 @@
         <v>-121032834.2117458</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>2.177</v>
+      </c>
       <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
@@ -31963,9 +32005,11 @@
         <v>-121033605.2117458</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>2.175</v>
+      </c>
       <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
@@ -32000,9 +32044,11 @@
         <v>-120888076.8075458</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>2.174</v>
+      </c>
       <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
@@ -32037,9 +32083,11 @@
         <v>-120888346.8075458</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>2.175</v>
+      </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
@@ -32230,9 +32278,11 @@
         <v>-120530319.3890458</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>2.175</v>
+      </c>
       <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
@@ -33630,16 +33680,18 @@
         <v>-118265536.4867789</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L987" t="inlineStr"/>
+      <c r="L987" t="n">
+        <v>1</v>
+      </c>
       <c r="M987" t="inlineStr"/>
     </row>
     <row r="988">
@@ -33665,11 +33717,15 @@
         <v>-111052706.3887789</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33698,11 +33754,15 @@
         <v>-107743683.1071789</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33735,10 +33795,12 @@
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
-      <c r="L990" t="n">
-        <v>1</v>
-      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L990" t="inlineStr"/>
       <c r="M990" t="inlineStr"/>
     </row>
     <row r="991">
@@ -33764,7 +33826,7 @@
         <v>-108457862.8872789</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -33797,7 +33859,7 @@
         <v>-109143131.4285789</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -34457,7 +34519,7 @@
         <v>-110770321.7548603</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -34490,7 +34552,7 @@
         <v>-110869256.9091603</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -34523,7 +34585,7 @@
         <v>-110836233.4937603</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34556,7 +34618,7 @@
         <v>-111378811.7837603</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -34622,7 +34684,7 @@
         <v>-111533175.3433603</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34655,7 +34717,7 @@
         <v>-110984122.4597223</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -34688,7 +34750,7 @@
         <v>-110984122.4597223</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -34721,7 +34783,7 @@
         <v>-110878167.5432223</v>
       </c>
       <c r="H1020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
       <c r="J1020" t="inlineStr"/>
@@ -34787,7 +34849,7 @@
         <v>-111122152.7629843</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -34820,7 +34882,7 @@
         <v>-111122152.7629843</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
